--- a/9/1/1/9/Mensual 1986 a 2021 - Mensual.xlsx
+++ b/9/1/1/9/Mensual 1986 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
   <si>
     <t>Serie</t>
   </si>
@@ -1319,6 +1319,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14065,6 +14068,35 @@
         <v>13.5</v>
       </c>
     </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="s">
+        <v>435</v>
+      </c>
+      <c r="B428">
+        <v>20</v>
+      </c>
+      <c r="C428">
+        <v>11.2</v>
+      </c>
+      <c r="D428">
+        <v>16.1</v>
+      </c>
+      <c r="E428">
+        <v>35.2</v>
+      </c>
+      <c r="F428">
+        <v>11.3</v>
+      </c>
+      <c r="G428">
+        <v>12.6</v>
+      </c>
+      <c r="H428">
+        <v>14.7</v>
+      </c>
+      <c r="I428">
+        <v>14.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/9/1/1/9/Mensual 1986 a 2021 - Mensual.xlsx
+++ b/9/1/1/9/Mensual 1986 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
   <si>
     <t>Serie</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14097,6 +14100,35 @@
         <v>14.6</v>
       </c>
     </row>
+    <row r="429" spans="1:9">
+      <c r="A429" t="s">
+        <v>436</v>
+      </c>
+      <c r="B429">
+        <v>11.8</v>
+      </c>
+      <c r="C429">
+        <v>11.8</v>
+      </c>
+      <c r="D429">
+        <v>6.5</v>
+      </c>
+      <c r="E429">
+        <v>25.8</v>
+      </c>
+      <c r="F429">
+        <v>5.7</v>
+      </c>
+      <c r="G429">
+        <v>7.2</v>
+      </c>
+      <c r="H429">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I429">
+        <v>11.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
